--- a/data/output/FV2410_FV2404/UTILMD/55148.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55148.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11074" uniqueCount="682">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11095" uniqueCount="682">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -2225,6 +2225,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U487" totalsRowShown="0">
+  <autoFilter ref="A1:U487"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2514,7 +2544,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U487"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -26122,5 +26155,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/55148.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55148.xlsx
@@ -4093,7 +4093,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -4455,7 +4455,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -4601,7 +4601,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -4803,7 +4803,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -5111,7 +5111,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -5311,7 +5311,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -5685,7 +5685,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -5993,7 +5993,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -6193,7 +6193,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -6413,7 +6413,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -6635,7 +6635,7 @@
         <v>628</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -6797,7 +6797,7 @@
         <v>629</v>
       </c>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -7001,7 +7001,7 @@
         <v>631</v>
       </c>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -7205,7 +7205,7 @@
         <v>633</v>
       </c>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -7409,7 +7409,7 @@
         <v>635</v>
       </c>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -7613,7 +7613,7 @@
         <v>637</v>
       </c>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -7817,7 +7817,7 @@
         <v>638</v>
       </c>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -8019,7 +8019,7 @@
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -8217,7 +8217,7 @@
         <v>640</v>
       </c>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -8365,7 +8365,7 @@
       </c>
       <c r="K85" s="2"/>
       <c r="L85" s="4"/>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -8523,7 +8523,7 @@
       </c>
       <c r="K88" s="2"/>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -8779,7 +8779,7 @@
         <v>641</v>
       </c>
       <c r="L93" s="4"/>
-      <c r="M93" s="2" t="s">
+      <c r="M93" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N93" s="2" t="s">
@@ -8927,7 +8927,7 @@
       </c>
       <c r="K96" s="2"/>
       <c r="L96" s="4"/>
-      <c r="M96" s="2" t="s">
+      <c r="M96" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N96" s="2" t="s">
@@ -9089,7 +9089,7 @@
       </c>
       <c r="K99" s="2"/>
       <c r="L99" s="4"/>
-      <c r="M99" s="2" t="s">
+      <c r="M99" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N99" s="2" t="s">
@@ -9301,7 +9301,7 @@
       </c>
       <c r="K103" s="2"/>
       <c r="L103" s="4"/>
-      <c r="M103" s="2" t="s">
+      <c r="M103" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N103" s="2" t="s">
@@ -9447,7 +9447,7 @@
       </c>
       <c r="K106" s="2"/>
       <c r="L106" s="4"/>
-      <c r="M106" s="2" t="s">
+      <c r="M106" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N106" s="2" t="s">
@@ -9547,7 +9547,7 @@
       </c>
       <c r="K108" s="2"/>
       <c r="L108" s="4"/>
-      <c r="M108" s="2" t="s">
+      <c r="M108" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N108" s="2" t="s">
@@ -9693,7 +9693,7 @@
       </c>
       <c r="K111" s="2"/>
       <c r="L111" s="4"/>
-      <c r="M111" s="2" t="s">
+      <c r="M111" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N111" s="2" t="s">
@@ -9849,7 +9849,7 @@
         <v>642</v>
       </c>
       <c r="L114" s="4"/>
-      <c r="M114" s="2" t="s">
+      <c r="M114" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N114" s="2" t="s">
@@ -9997,7 +9997,7 @@
       </c>
       <c r="K117" s="2"/>
       <c r="L117" s="4"/>
-      <c r="M117" s="2" t="s">
+      <c r="M117" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N117" s="2" t="s">
@@ -10161,7 +10161,7 @@
         <v>643</v>
       </c>
       <c r="L120" s="4"/>
-      <c r="M120" s="2" t="s">
+      <c r="M120" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N120" s="2" t="s">
@@ -10381,7 +10381,7 @@
         <v>645</v>
       </c>
       <c r="L124" s="4"/>
-      <c r="M124" s="2" t="s">
+      <c r="M124" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N124" s="2" t="s">
@@ -10585,7 +10585,7 @@
         <v>646</v>
       </c>
       <c r="L128" s="4"/>
-      <c r="M128" s="2" t="s">
+      <c r="M128" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N128" s="2" t="s">
@@ -10783,7 +10783,7 @@
       </c>
       <c r="K132" s="2"/>
       <c r="L132" s="4"/>
-      <c r="M132" s="2" t="s">
+      <c r="M132" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N132" s="2" t="s">
@@ -11137,7 +11137,7 @@
       </c>
       <c r="K139" s="2"/>
       <c r="L139" s="4"/>
-      <c r="M139" s="2" t="s">
+      <c r="M139" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N139" s="2" t="s">
@@ -11335,7 +11335,7 @@
         <v>647</v>
       </c>
       <c r="L143" s="4"/>
-      <c r="M143" s="2" t="s">
+      <c r="M143" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N143" s="2" t="s">
@@ -11483,7 +11483,7 @@
       </c>
       <c r="K146" s="2"/>
       <c r="L146" s="4"/>
-      <c r="M146" s="2" t="s">
+      <c r="M146" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N146" s="2" t="s">
@@ -11641,7 +11641,7 @@
       </c>
       <c r="K149" s="2"/>
       <c r="L149" s="4"/>
-      <c r="M149" s="2" t="s">
+      <c r="M149" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N149" s="2" t="s">
@@ -11897,7 +11897,7 @@
         <v>648</v>
       </c>
       <c r="L154" s="4"/>
-      <c r="M154" s="2" t="s">
+      <c r="M154" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N154" s="2" t="s">
@@ -12045,7 +12045,7 @@
       </c>
       <c r="K157" s="2"/>
       <c r="L157" s="4"/>
-      <c r="M157" s="2" t="s">
+      <c r="M157" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N157" s="2" t="s">
@@ -12207,7 +12207,7 @@
       </c>
       <c r="K160" s="2"/>
       <c r="L160" s="4"/>
-      <c r="M160" s="2" t="s">
+      <c r="M160" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N160" s="2" t="s">
@@ -12425,7 +12425,7 @@
         <v>650</v>
       </c>
       <c r="L164" s="4"/>
-      <c r="M164" s="2" t="s">
+      <c r="M164" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N164" s="2" t="s">
@@ -12837,7 +12837,7 @@
         <v>651</v>
       </c>
       <c r="L172" s="4"/>
-      <c r="M172" s="2" t="s">
+      <c r="M172" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N172" s="2" t="s">
@@ -13037,7 +13037,7 @@
         <v>652</v>
       </c>
       <c r="L176" s="4"/>
-      <c r="M176" s="2" t="s">
+      <c r="M176" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N176" s="2" t="s">
@@ -13235,7 +13235,7 @@
       </c>
       <c r="K180" s="2"/>
       <c r="L180" s="4"/>
-      <c r="M180" s="2" t="s">
+      <c r="M180" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N180" s="2" t="s">
@@ -13381,7 +13381,7 @@
       </c>
       <c r="K183" s="2"/>
       <c r="L183" s="4"/>
-      <c r="M183" s="2" t="s">
+      <c r="M183" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N183" s="2" t="s">
@@ -13751,7 +13751,7 @@
       </c>
       <c r="K190" s="2"/>
       <c r="L190" s="4"/>
-      <c r="M190" s="2" t="s">
+      <c r="M190" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N190" s="2" t="s">
@@ -13897,7 +13897,7 @@
       </c>
       <c r="K193" s="2"/>
       <c r="L193" s="4"/>
-      <c r="M193" s="2" t="s">
+      <c r="M193" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N193" s="2" t="s">
@@ -14269,7 +14269,7 @@
         <v>653</v>
       </c>
       <c r="L200" s="4"/>
-      <c r="M200" s="2" t="s">
+      <c r="M200" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N200" s="2" t="s">
@@ -14417,7 +14417,7 @@
       </c>
       <c r="K203" s="2"/>
       <c r="L203" s="4"/>
-      <c r="M203" s="2" t="s">
+      <c r="M203" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N203" s="2" t="s">
@@ -14573,7 +14573,7 @@
         <v>654</v>
       </c>
       <c r="L206" s="4"/>
-      <c r="M206" s="2" t="s">
+      <c r="M206" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N206" s="2" t="s">
@@ -14721,7 +14721,7 @@
       </c>
       <c r="K209" s="2"/>
       <c r="L209" s="4"/>
-      <c r="M209" s="2" t="s">
+      <c r="M209" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N209" s="2" t="s">
@@ -14883,7 +14883,7 @@
       </c>
       <c r="K212" s="2"/>
       <c r="L212" s="4"/>
-      <c r="M212" s="2" t="s">
+      <c r="M212" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N212" s="2" t="s">
@@ -15095,7 +15095,7 @@
       </c>
       <c r="K216" s="2"/>
       <c r="L216" s="4"/>
-      <c r="M216" s="2" t="s">
+      <c r="M216" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N216" s="2" t="s">
@@ -15291,7 +15291,7 @@
       </c>
       <c r="K220" s="2"/>
       <c r="L220" s="4"/>
-      <c r="M220" s="2" t="s">
+      <c r="M220" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N220" s="2" t="s">
@@ -15489,7 +15489,7 @@
         <v>655</v>
       </c>
       <c r="L224" s="4"/>
-      <c r="M224" s="2" t="s">
+      <c r="M224" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N224" s="2" t="s">
@@ -15637,7 +15637,7 @@
       </c>
       <c r="K227" s="2"/>
       <c r="L227" s="4"/>
-      <c r="M227" s="2" t="s">
+      <c r="M227" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N227" s="2" t="s">
@@ -15799,7 +15799,7 @@
       </c>
       <c r="K230" s="2"/>
       <c r="L230" s="4"/>
-      <c r="M230" s="2" t="s">
+      <c r="M230" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N230" s="2" t="s">
@@ -16015,7 +16015,7 @@
       </c>
       <c r="K234" s="2"/>
       <c r="L234" s="4"/>
-      <c r="M234" s="2" t="s">
+      <c r="M234" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N234" s="2" t="s">
@@ -16161,7 +16161,7 @@
       </c>
       <c r="K237" s="2"/>
       <c r="L237" s="4"/>
-      <c r="M237" s="2" t="s">
+      <c r="M237" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N237" s="2" t="s">
@@ -16315,7 +16315,7 @@
       </c>
       <c r="K240" s="2"/>
       <c r="L240" s="4"/>
-      <c r="M240" s="2" t="s">
+      <c r="M240" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N240" s="2" t="s">
@@ -16461,7 +16461,7 @@
       </c>
       <c r="K243" s="2"/>
       <c r="L243" s="4"/>
-      <c r="M243" s="2" t="s">
+      <c r="M243" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N243" s="2" t="s">
@@ -16615,7 +16615,7 @@
       </c>
       <c r="K246" s="2"/>
       <c r="L246" s="4"/>
-      <c r="M246" s="2" t="s">
+      <c r="M246" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N246" s="2" t="s">
@@ -16761,7 +16761,7 @@
       </c>
       <c r="K249" s="2"/>
       <c r="L249" s="4"/>
-      <c r="M249" s="2" t="s">
+      <c r="M249" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N249" s="2" t="s">
@@ -16917,7 +16917,7 @@
         <v>657</v>
       </c>
       <c r="L252" s="4"/>
-      <c r="M252" s="2" t="s">
+      <c r="M252" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N252" s="2" t="s">
@@ -17065,7 +17065,7 @@
       </c>
       <c r="K255" s="2"/>
       <c r="L255" s="4"/>
-      <c r="M255" s="2" t="s">
+      <c r="M255" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N255" s="2" t="s">
@@ -17223,7 +17223,7 @@
       </c>
       <c r="K258" s="2"/>
       <c r="L258" s="4"/>
-      <c r="M258" s="2" t="s">
+      <c r="M258" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N258" s="2" t="s">
@@ -17369,7 +17369,7 @@
       </c>
       <c r="K261" s="2"/>
       <c r="L261" s="4"/>
-      <c r="M261" s="2" t="s">
+      <c r="M261" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N261" s="2" t="s">
@@ -17583,7 +17583,7 @@
         <v>658</v>
       </c>
       <c r="L265" s="4"/>
-      <c r="M265" s="2" t="s">
+      <c r="M265" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N265" s="2" t="s">
@@ -17731,7 +17731,7 @@
       </c>
       <c r="K268" s="2"/>
       <c r="L268" s="4"/>
-      <c r="M268" s="2" t="s">
+      <c r="M268" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N268" s="2" t="s">
@@ -17893,7 +17893,7 @@
       </c>
       <c r="K271" s="2"/>
       <c r="L271" s="4"/>
-      <c r="M271" s="2" t="s">
+      <c r="M271" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N271" s="2" t="s">
@@ -18105,7 +18105,7 @@
       </c>
       <c r="K275" s="2"/>
       <c r="L275" s="4"/>
-      <c r="M275" s="2" t="s">
+      <c r="M275" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N275" s="2" t="s">
@@ -18355,7 +18355,7 @@
       </c>
       <c r="K280" s="2"/>
       <c r="L280" s="4"/>
-      <c r="M280" s="2" t="s">
+      <c r="M280" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N280" s="2" t="s">
@@ -18709,7 +18709,7 @@
       </c>
       <c r="K287" s="2"/>
       <c r="L287" s="4"/>
-      <c r="M287" s="2" t="s">
+      <c r="M287" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N287" s="2" t="s">
@@ -18907,7 +18907,7 @@
         <v>659</v>
       </c>
       <c r="L291" s="4"/>
-      <c r="M291" s="2" t="s">
+      <c r="M291" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N291" s="2" t="s">
@@ -19055,7 +19055,7 @@
       </c>
       <c r="K294" s="2"/>
       <c r="L294" s="4"/>
-      <c r="M294" s="2" t="s">
+      <c r="M294" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N294" s="2" t="s">
@@ -19213,7 +19213,7 @@
       </c>
       <c r="K297" s="2"/>
       <c r="L297" s="4"/>
-      <c r="M297" s="2" t="s">
+      <c r="M297" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N297" s="2" t="s">
@@ -19623,7 +19623,7 @@
         <v>660</v>
       </c>
       <c r="L305" s="4"/>
-      <c r="M305" s="2" t="s">
+      <c r="M305" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N305" s="2" t="s">
@@ -19771,7 +19771,7 @@
       </c>
       <c r="K308" s="2"/>
       <c r="L308" s="4"/>
-      <c r="M308" s="2" t="s">
+      <c r="M308" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N308" s="2" t="s">
@@ -19935,7 +19935,7 @@
         <v>661</v>
       </c>
       <c r="L311" s="4"/>
-      <c r="M311" s="2" t="s">
+      <c r="M311" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N311" s="2" t="s">
@@ -20091,7 +20091,7 @@
       </c>
       <c r="K314" s="2"/>
       <c r="L314" s="4"/>
-      <c r="M314" s="2" t="s">
+      <c r="M314" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N314" s="2" t="s">
@@ -20943,7 +20943,7 @@
       </c>
       <c r="K330" s="2"/>
       <c r="L330" s="4"/>
-      <c r="M330" s="2" t="s">
+      <c r="M330" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N330" s="2" t="s">
@@ -21103,7 +21103,7 @@
         <v>663</v>
       </c>
       <c r="L333" s="4"/>
-      <c r="M333" s="2" t="s">
+      <c r="M333" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N333" s="2" t="s">
@@ -21317,7 +21317,7 @@
       </c>
       <c r="K337" s="2"/>
       <c r="L337" s="4"/>
-      <c r="M337" s="2" t="s">
+      <c r="M337" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N337" s="2" t="s">
@@ -21475,7 +21475,7 @@
       </c>
       <c r="K340" s="2"/>
       <c r="L340" s="4"/>
-      <c r="M340" s="2" t="s">
+      <c r="M340" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N340" s="2" t="s">
@@ -21687,7 +21687,7 @@
       </c>
       <c r="K344" s="2"/>
       <c r="L344" s="4"/>
-      <c r="M344" s="2" t="s">
+      <c r="M344" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N344" s="2" t="s">
@@ -22043,7 +22043,7 @@
         <v>664</v>
       </c>
       <c r="L351" s="4"/>
-      <c r="M351" s="2" t="s">
+      <c r="M351" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N351" s="2" t="s">
@@ -22347,7 +22347,7 @@
         <v>665</v>
       </c>
       <c r="L357" s="4"/>
-      <c r="M357" s="2" t="s">
+      <c r="M357" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N357" s="2" t="s">
@@ -22497,7 +22497,7 @@
         <v>666</v>
       </c>
       <c r="L360" s="4"/>
-      <c r="M360" s="2" t="s">
+      <c r="M360" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N360" s="2" t="s">
@@ -22715,7 +22715,7 @@
       </c>
       <c r="K364" s="2"/>
       <c r="L364" s="4"/>
-      <c r="M364" s="2" t="s">
+      <c r="M364" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N364" s="2" t="s">
@@ -22879,7 +22879,7 @@
         <v>668</v>
       </c>
       <c r="L367" s="4"/>
-      <c r="M367" s="2" t="s">
+      <c r="M367" s="3" t="s">
         <v>88</v>
       </c>
       <c r="N367" s="2" t="s">
@@ -23045,7 +23045,7 @@
         <v>669</v>
       </c>
       <c r="L370" s="4"/>
-      <c r="M370" s="2" t="s">
+      <c r="M370" s="3" t="s">
         <v>89</v>
       </c>
       <c r="N370" s="2" t="s">
@@ -23205,7 +23205,7 @@
       </c>
       <c r="K373" s="2"/>
       <c r="L373" s="4"/>
-      <c r="M373" s="2" t="s">
+      <c r="M373" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N373" s="2" t="s">
@@ -23423,7 +23423,7 @@
         <v>671</v>
       </c>
       <c r="L377" s="4"/>
-      <c r="M377" s="2" t="s">
+      <c r="M377" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N377" s="2" t="s">
@@ -23835,7 +23835,7 @@
         <v>672</v>
       </c>
       <c r="L385" s="4"/>
-      <c r="M385" s="2" t="s">
+      <c r="M385" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N385" s="2" t="s">
@@ -24035,7 +24035,7 @@
         <v>652</v>
       </c>
       <c r="L389" s="4"/>
-      <c r="M389" s="2" t="s">
+      <c r="M389" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N389" s="2" t="s">
@@ -24235,7 +24235,7 @@
         <v>673</v>
       </c>
       <c r="L393" s="4"/>
-      <c r="M393" s="2" t="s">
+      <c r="M393" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N393" s="2" t="s">
@@ -24593,7 +24593,7 @@
         <v>674</v>
       </c>
       <c r="L400" s="4"/>
-      <c r="M400" s="2" t="s">
+      <c r="M400" s="3" t="s">
         <v>92</v>
       </c>
       <c r="N400" s="2" t="s">
@@ -24793,7 +24793,7 @@
         <v>675</v>
       </c>
       <c r="L404" s="4"/>
-      <c r="M404" s="2" t="s">
+      <c r="M404" s="3" t="s">
         <v>93</v>
       </c>
       <c r="N404" s="2" t="s">
@@ -25051,7 +25051,7 @@
         <v>676</v>
       </c>
       <c r="L409" s="4"/>
-      <c r="M409" s="2" t="s">
+      <c r="M409" s="3" t="s">
         <v>94</v>
       </c>
       <c r="N409" s="2" t="s">
@@ -25199,7 +25199,7 @@
       </c>
       <c r="K412" s="2"/>
       <c r="L412" s="4"/>
-      <c r="M412" s="2" t="s">
+      <c r="M412" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N412" s="2" t="s">
@@ -25353,7 +25353,7 @@
       </c>
       <c r="K415" s="2"/>
       <c r="L415" s="4"/>
-      <c r="M415" s="2" t="s">
+      <c r="M415" s="3" t="s">
         <v>95</v>
       </c>
       <c r="N415" s="2" t="s">
@@ -25501,7 +25501,7 @@
         <v>677</v>
       </c>
       <c r="L418" s="4"/>
-      <c r="M418" s="2" t="s">
+      <c r="M418" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N418" s="2" t="s">
@@ -25661,7 +25661,7 @@
       </c>
       <c r="K421" s="2"/>
       <c r="L421" s="4"/>
-      <c r="M421" s="2" t="s">
+      <c r="M421" s="3" t="s">
         <v>96</v>
       </c>
       <c r="N421" s="2" t="s">
@@ -25983,7 +25983,7 @@
         <v>679</v>
       </c>
       <c r="L427" s="4"/>
-      <c r="M427" s="2" t="s">
+      <c r="M427" s="3" t="s">
         <v>97</v>
       </c>
       <c r="N427" s="2" t="s">
@@ -26131,7 +26131,7 @@
       </c>
       <c r="K430" s="2"/>
       <c r="L430" s="4"/>
-      <c r="M430" s="2" t="s">
+      <c r="M430" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N430" s="2" t="s">
@@ -26285,7 +26285,7 @@
       </c>
       <c r="K433" s="2"/>
       <c r="L433" s="4"/>
-      <c r="M433" s="2" t="s">
+      <c r="M433" s="3" t="s">
         <v>98</v>
       </c>
       <c r="N433" s="2" t="s">
@@ -26431,7 +26431,7 @@
       </c>
       <c r="K436" s="2"/>
       <c r="L436" s="4"/>
-      <c r="M436" s="2" t="s">
+      <c r="M436" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N436" s="2" t="s">
@@ -26589,7 +26589,7 @@
       </c>
       <c r="K439" s="2"/>
       <c r="L439" s="4"/>
-      <c r="M439" s="2" t="s">
+      <c r="M439" s="3" t="s">
         <v>99</v>
       </c>
       <c r="N439" s="2" t="s">
@@ -26961,7 +26961,7 @@
         <v>676</v>
       </c>
       <c r="L446" s="4"/>
-      <c r="M446" s="2" t="s">
+      <c r="M446" s="3" t="s">
         <v>100</v>
       </c>
       <c r="N446" s="2" t="s">
@@ -27109,7 +27109,7 @@
       </c>
       <c r="K449" s="2"/>
       <c r="L449" s="4"/>
-      <c r="M449" s="2" t="s">
+      <c r="M449" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N449" s="2" t="s">
@@ -27263,7 +27263,7 @@
       </c>
       <c r="K452" s="2"/>
       <c r="L452" s="4"/>
-      <c r="M452" s="2" t="s">
+      <c r="M452" s="3" t="s">
         <v>101</v>
       </c>
       <c r="N452" s="2" t="s">
@@ -27409,7 +27409,7 @@
       </c>
       <c r="K455" s="2"/>
       <c r="L455" s="4"/>
-      <c r="M455" s="2" t="s">
+      <c r="M455" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N455" s="2" t="s">
@@ -27567,7 +27567,7 @@
       </c>
       <c r="K458" s="2"/>
       <c r="L458" s="4"/>
-      <c r="M458" s="2" t="s">
+      <c r="M458" s="3" t="s">
         <v>102</v>
       </c>
       <c r="N458" s="2" t="s">
@@ -27723,7 +27723,7 @@
         <v>680</v>
       </c>
       <c r="L461" s="4"/>
-      <c r="M461" s="2" t="s">
+      <c r="M461" s="3" t="s">
         <v>103</v>
       </c>
       <c r="N461" s="2" t="s">
@@ -28013,7 +28013,7 @@
       </c>
       <c r="K467" s="2"/>
       <c r="L467" s="4"/>
-      <c r="M467" s="2" t="s">
+      <c r="M467" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N467" s="2" t="s">
@@ -28173,7 +28173,7 @@
         <v>682</v>
       </c>
       <c r="L470" s="4"/>
-      <c r="M470" s="2" t="s">
+      <c r="M470" s="3" t="s">
         <v>104</v>
       </c>
       <c r="N470" s="2" t="s">
@@ -28321,7 +28321,7 @@
       </c>
       <c r="K473" s="2"/>
       <c r="L473" s="4"/>
-      <c r="M473" s="2" t="s">
+      <c r="M473" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N473" s="2" t="s">
@@ -28479,7 +28479,7 @@
       </c>
       <c r="K476" s="2"/>
       <c r="L476" s="4"/>
-      <c r="M476" s="2" t="s">
+      <c r="M476" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N476" s="2" t="s">
@@ -28637,7 +28637,7 @@
       </c>
       <c r="K479" s="2"/>
       <c r="L479" s="4"/>
-      <c r="M479" s="2" t="s">
+      <c r="M479" s="3" t="s">
         <v>105</v>
       </c>
       <c r="N479" s="2" t="s">
@@ -28783,7 +28783,7 @@
       </c>
       <c r="K482" s="2"/>
       <c r="L482" s="4"/>
-      <c r="M482" s="2" t="s">
+      <c r="M482" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N482" s="2" t="s">
@@ -28943,7 +28943,7 @@
       </c>
       <c r="K485" s="2"/>
       <c r="L485" s="4"/>
-      <c r="M485" s="2" t="s">
+      <c r="M485" s="3" t="s">
         <v>106</v>
       </c>
       <c r="N485" s="2"/>
